--- a/F24_valor_estetico.xlsx
+++ b/F24_valor_estetico.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="143">
   <si>
     <t>barrio</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>Árboles</t>
+  </si>
+  <si>
+    <t>institucion</t>
+  </si>
+  <si>
+    <t>corredor</t>
   </si>
 </sst>
 </file>
@@ -4526,7 +4532,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4544,7 +4550,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -4562,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -5176,7 +5182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U8" activeCellId="2" sqref="C9:G9 L8:P8 U8:Y8"/>
     </sheetView>
   </sheetViews>
@@ -5215,7 +5221,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -5233,7 +5239,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -5251,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
